--- a/dataset/chap4_1.xlsx
+++ b/dataset/chap4_1.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="chap4_1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="21">
   <si>
     <t>id</t>
   </si>
@@ -82,6 +82,22 @@
   </si>
   <si>
     <t>midpoint</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>medianScore</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumFreq</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>cumulative</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>median</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +447,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -555,17 +571,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -702,7 +707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -750,7 +755,30 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -794,15 +822,36 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="F7:G36" totalsRowShown="0">
-  <autoFilter ref="F7:G36"/>
-  <sortState ref="F8:G36">
-    <sortCondition ref="F7:F36"/>
-  </sortState>
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="表4" displayName="表4" ref="F7:H36" totalsRowShown="0">
+  <autoFilter ref="F7:H36"/>
+  <tableColumns count="3">
     <tableColumn id="1" name="score"/>
-    <tableColumn id="2" name="freq" dataDxfId="0">
+    <tableColumn id="2" name="freq" dataDxfId="4">
       <calculatedColumnFormula>COUNTIF(表1[score],表4[[#This Row],[score]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="cumFreq" dataDxfId="3">
+      <calculatedColumnFormula>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="J13:M23" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="2">
+  <autoFilter ref="J13:M23"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="class">
+      <calculatedColumnFormula>J13+$K$11</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" name="midpoint">
+      <calculatedColumnFormula>J14+$K$11/2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="freq" dataDxfId="0">
+      <calculatedColumnFormula>COUNTIFS(表1[IQ],"&lt;"&amp;J15,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="cumulative">
+      <calculatedColumnFormula>SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1072,19 +1121,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1101,7 +1152,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1121,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1142,7 +1193,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1163,7 +1214,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1177,7 +1228,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1193,11 +1244,11 @@
       <c r="F6" t="s">
         <v>7</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1216,15 +1267,25 @@
       <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>10</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <f>COUNT(表1[IQ])</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <f>MEDIAN(表1[IQ])</f>
+        <v>96.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1244,15 +1305,19 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>1</v>
       </c>
-      <c r="I8" t="s">
+      <c r="H8">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>11</v>
       </c>
-      <c r="J8">
-        <f>ROUNDUP(SQRT(J7),0)</f>
+      <c r="K8">
+        <f>ROUNDUP(SQRT(K7),0)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1272,15 +1337,23 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>2</v>
       </c>
-      <c r="I9" t="s">
+      <c r="H9">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
         <v>13</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f>MAX(表1[IQ])</f>
         <v>117</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N9">
+        <f>(50-44)/20</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1300,15 +1373,19 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>3</v>
       </c>
-      <c r="I10" t="s">
+      <c r="H10">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f>MIN(表1[IQ])</f>
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1328,15 +1405,19 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H11">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
         <v>12</v>
       </c>
-      <c r="J11">
-        <f>ROUNDUP((J9-J10)/J8,0)</f>
+      <c r="K11">
+        <f>ROUNDUP((K9-K10)/K8,0)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1356,8 +1437,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1377,17 +1462,24 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>4</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="H13">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>16</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1407,20 +1499,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>4</v>
       </c>
-      <c r="I14">
-        <f>J10</f>
+      <c r="H14">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <f>K10</f>
         <v>70</v>
       </c>
-      <c r="J14">
-        <f>I14+$J$11/2</f>
+      <c r="K14">
+        <f>J14+$K$11/2</f>
         <v>72.5</v>
       </c>
-      <c r="K14">
-        <f t="array" ref="K14:K23">FREQUENCY(表1[IQ],J14:J23)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J15,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1440,19 +1540,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>1</v>
       </c>
-      <c r="I15">
-        <f>I14+$J$11</f>
+      <c r="H15">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>21</v>
+      </c>
+      <c r="J15">
+        <f>J14+$K$11</f>
         <v>75</v>
       </c>
-      <c r="J15">
-        <f t="shared" ref="J15:J23" si="0">I15+$J$11/2</f>
+      <c r="K15">
+        <f t="shared" ref="K15:K23" si="0">J15+$K$11/2</f>
         <v>77.5</v>
       </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J16,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1472,19 +1581,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>1</v>
       </c>
-      <c r="I16">
-        <f t="shared" ref="I16:I24" si="1">I15+$J$11</f>
+      <c r="H16">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>22</v>
+      </c>
+      <c r="J16">
+        <f t="shared" ref="J16:J23" si="1">J15+$K$11</f>
         <v>80</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <f t="shared" si="0"/>
         <v>82.5</v>
       </c>
-      <c r="K16">
+      <c r="L16">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J17,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M16">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1504,19 +1622,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>4</v>
       </c>
-      <c r="I17">
+      <c r="H17">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>26</v>
+      </c>
+      <c r="J17">
         <f t="shared" si="1"/>
         <v>85</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <f t="shared" si="0"/>
         <v>87.5</v>
       </c>
-      <c r="K17">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J18,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1536,19 +1663,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>3</v>
       </c>
-      <c r="I18">
+      <c r="H18">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>29</v>
+      </c>
+      <c r="J18">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <f t="shared" si="0"/>
         <v>92.5</v>
       </c>
-      <c r="K18">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J19,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
+        <v>23</v>
+      </c>
+      <c r="M18">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1568,19 +1704,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>4</v>
       </c>
-      <c r="I19">
+      <c r="H19">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>33</v>
+      </c>
+      <c r="J19">
         <f t="shared" si="1"/>
         <v>95</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
-      <c r="K19">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J20,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
+        <v>20</v>
+      </c>
+      <c r="M19">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1600,19 +1745,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>4</v>
       </c>
-      <c r="I20">
+      <c r="H20">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>37</v>
+      </c>
+      <c r="J20">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <f t="shared" si="0"/>
         <v>102.5</v>
       </c>
-      <c r="K20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J21,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
+        <v>20</v>
+      </c>
+      <c r="M20">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1632,19 +1786,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>10</v>
       </c>
-      <c r="I21">
+      <c r="H21">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>47</v>
+      </c>
+      <c r="J21">
         <f t="shared" si="1"/>
         <v>105</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <f t="shared" si="0"/>
         <v>107.5</v>
       </c>
-      <c r="K21">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J22,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
+        <v>8</v>
+      </c>
+      <c r="M21">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1664,19 +1827,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>3</v>
       </c>
-      <c r="I22">
+      <c r="H22">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>50</v>
+      </c>
+      <c r="J22">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <f t="shared" si="0"/>
         <v>112.5</v>
       </c>
-      <c r="K22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J23,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
+        <v>6</v>
+      </c>
+      <c r="M22">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1696,19 +1868,28 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>3</v>
       </c>
-      <c r="I23" s="1">
+      <c r="H23">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>53</v>
+      </c>
+      <c r="J23" s="2">
         <f t="shared" si="1"/>
         <v>115</v>
       </c>
-      <c r="J23" s="1">
+      <c r="K23" s="2">
         <f t="shared" si="0"/>
         <v>117.5</v>
       </c>
-      <c r="K23" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="2">
+        <f>COUNTIFS(表1[IQ],"&lt;"&amp;J24,表1[IQ],"&gt;="&amp;表2[[#This Row],[class]])</f>
+        <v>2</v>
+      </c>
+      <c r="M23" s="2">
+        <f ca="1">SUM($L$14:INDIRECT("r"&amp;ROW()&amp;"c"&amp;(COLUMN()-1),0))</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1728,8 +1909,15 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>61</v>
+      </c>
+      <c r="J24">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1749,8 +1937,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1770,8 +1962,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1791,8 +1987,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1812,8 +2012,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1833,8 +2037,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1854,8 +2062,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1875,8 +2087,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1896,8 +2112,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1917,8 +2137,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1938,8 +2162,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1959,8 +2187,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1980,8 +2212,12 @@
         <f>COUNTIF(表1[score],表4[[#This Row],[score]])</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <f>SUMIF(表4[score],"&lt;="&amp;表4[[#This Row],[score]],表4[freq])</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1995,7 +2231,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2009,7 +2245,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2022,8 +2258,15 @@
       <c r="D39">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39">
+        <f>MEDIAN(表1[score])</f>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2037,7 +2280,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2051,7 +2294,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2065,7 +2308,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2079,7 +2322,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2093,7 +2336,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2107,7 +2350,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2121,7 +2364,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2135,7 +2378,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2894,10 +3137,12 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="3">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>